--- a/Peaks_Year.xlsx
+++ b/Peaks_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Peak Loads for 2023 Mthembanji</t>
+    <t>Peak Loads for 2023 (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>

--- a/Peaks_Year.xlsx
+++ b/Peaks_Year.xlsx
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.9248823529</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/Peaks_Year.xlsx
+++ b/Peaks_Year.xlsx
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.9248823529</v>
+        <v>14.8757486813</v>
       </c>
     </row>
     <row r="5" spans="1:3">
